--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ccr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H2">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I2">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J2">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N2">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O2">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P2">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q2">
-        <v>0.07582520108799999</v>
+        <v>0.08312541218866666</v>
       </c>
       <c r="R2">
-        <v>0.6824268097919999</v>
+        <v>0.748128709698</v>
       </c>
       <c r="S2">
-        <v>1.083976207585826E-05</v>
+        <v>5.67371741334113E-06</v>
       </c>
       <c r="T2">
-        <v>1.085235237282503E-05</v>
+        <v>5.714839601291677E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H3">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I3">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J3">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P3">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q3">
-        <v>0.013404242208</v>
+        <v>0.005000689242666666</v>
       </c>
       <c r="R3">
-        <v>0.120638179872</v>
+        <v>0.045006203184</v>
       </c>
       <c r="S3">
-        <v>1.916233577452283E-06</v>
+        <v>3.413215873195254E-07</v>
       </c>
       <c r="T3">
-        <v>1.918459267428593E-06</v>
+        <v>3.437954310876921E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H4">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I4">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J4">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N4">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O4">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P4">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q4">
-        <v>34.826828852676</v>
+        <v>20.26978410656089</v>
       </c>
       <c r="R4">
-        <v>313.441459674084</v>
+        <v>182.428056959048</v>
       </c>
       <c r="S4">
-        <v>0.004978747609010807</v>
+        <v>0.00138351226203892</v>
       </c>
       <c r="T4">
-        <v>0.004984530384544197</v>
+        <v>0.001393539735585218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H5">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I5">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J5">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N5">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O5">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P5">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q5">
-        <v>0.09682028848800001</v>
+        <v>0.2084783599073333</v>
       </c>
       <c r="R5">
-        <v>0.580921730928</v>
+        <v>1.250870159444</v>
       </c>
       <c r="S5">
-        <v>1.384116199187993E-05</v>
+        <v>1.422967140573537E-05</v>
       </c>
       <c r="T5">
-        <v>9.238158927231542E-06</v>
+        <v>9.555203844737193E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H6">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I6">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J6">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N6">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O6">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P6">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q6">
-        <v>37.93547649942399</v>
+        <v>11.55920324889622</v>
       </c>
       <c r="R6">
-        <v>341.419288494816</v>
+        <v>104.032829240066</v>
       </c>
       <c r="S6">
-        <v>0.005423151321561696</v>
+        <v>0.0007889723615295773</v>
       </c>
       <c r="T6">
-        <v>0.00542945026845337</v>
+        <v>0.0007946907058486506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H7">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I7">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J7">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N7">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O7">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P7">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q7">
-        <v>3.136267576023111</v>
+        <v>0.222815916876</v>
       </c>
       <c r="R7">
-        <v>28.226408184208</v>
+        <v>2.005343251884</v>
       </c>
       <c r="S7">
-        <v>0.0004483521816297492</v>
+        <v>1.520828004653541E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004488729391032911</v>
+        <v>1.531850720536564E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H8">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I8">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J8">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P8">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q8">
-        <v>0.5544237221253333</v>
+        <v>0.013404242208</v>
       </c>
       <c r="R8">
-        <v>4.989813499128</v>
+        <v>0.120638179872</v>
       </c>
       <c r="S8">
-        <v>7.92588895356253E-05</v>
+        <v>9.149053270925095E-07</v>
       </c>
       <c r="T8">
-        <v>7.935094810199666E-05</v>
+        <v>9.215364132176643E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H9">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I9">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J9">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N9">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O9">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P9">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q9">
-        <v>1440.500684984532</v>
+        <v>54.332729446576</v>
       </c>
       <c r="R9">
-        <v>12964.50616486079</v>
+        <v>488.994565019184</v>
       </c>
       <c r="S9">
-        <v>0.2059300136536578</v>
+        <v>0.003708475483715196</v>
       </c>
       <c r="T9">
-        <v>0.2061691997177177</v>
+        <v>0.00373535391539259</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H10">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I10">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J10">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N10">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O10">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P10">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q10">
-        <v>4.004662396262001</v>
+        <v>0.5588218534920001</v>
       </c>
       <c r="R10">
-        <v>24.027974377572</v>
+        <v>3.352931120952</v>
       </c>
       <c r="S10">
-        <v>0.0005724955153002087</v>
+        <v>3.814233454767045E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003821069761753658</v>
+        <v>2.561252268764658E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H11">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I11">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J11">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N11">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O11">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P11">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q11">
-        <v>1569.079978938021</v>
+        <v>30.984200889292</v>
       </c>
       <c r="R11">
-        <v>14121.71981044218</v>
+        <v>278.857808003628</v>
       </c>
       <c r="S11">
-        <v>0.2243113556657955</v>
+        <v>0.00211482380051288</v>
       </c>
       <c r="T11">
-        <v>0.2245718915116091</v>
+        <v>0.002130151702040455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H12">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I12">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J12">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N12">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O12">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P12">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q12">
-        <v>0.015662686832</v>
+        <v>20.99798724838433</v>
       </c>
       <c r="R12">
-        <v>0.09397612099199999</v>
+        <v>188.981885235459</v>
       </c>
       <c r="S12">
-        <v>2.23909460563801E-06</v>
+        <v>0.001433215700944413</v>
       </c>
       <c r="T12">
-        <v>1.49446353074445E-06</v>
+        <v>0.001443603416992683</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H13">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I13">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J13">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.062472</v>
       </c>
       <c r="O13">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P13">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q13">
-        <v>0.002768821512</v>
+        <v>1.263204670941333</v>
       </c>
       <c r="R13">
-        <v>0.016612929072</v>
+        <v>11.368842038472</v>
       </c>
       <c r="S13">
-        <v>3.958231035321053E-07</v>
+        <v>8.621991938959497E-05</v>
       </c>
       <c r="T13">
-        <v>2.641885659343372E-07</v>
+        <v>8.684482744756116E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H14">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I14">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J14">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N14">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O14">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P14">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q14">
-        <v>7.193936921289001</v>
+        <v>5120.27137057732</v>
       </c>
       <c r="R14">
-        <v>43.163621527734</v>
+        <v>46082.44233519588</v>
       </c>
       <c r="S14">
-        <v>0.001028425424483921</v>
+        <v>0.3494836545332333</v>
       </c>
       <c r="T14">
-        <v>0.0006864132882601722</v>
+        <v>0.3520166556470298</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H15">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I15">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J15">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N15">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O15">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P15">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q15">
-        <v>0.019999496682</v>
+        <v>52.66290810038367</v>
       </c>
       <c r="R15">
-        <v>0.07999798672800001</v>
+        <v>315.977448602302</v>
       </c>
       <c r="S15">
-        <v>2.859073006851618E-06</v>
+        <v>0.003594501980311</v>
       </c>
       <c r="T15">
-        <v>1.272175021015732E-06</v>
+        <v>0.002413702900289015</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H16">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I16">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J16">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N16">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O16">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P16">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q16">
-        <v>7.836068743736</v>
+        <v>2919.925399839378</v>
       </c>
       <c r="R16">
-        <v>47.016412462416</v>
+        <v>26279.3285985544</v>
       </c>
       <c r="S16">
-        <v>0.001120222822667996</v>
+        <v>0.1992992413574397</v>
       </c>
       <c r="T16">
-        <v>0.0007476826350121544</v>
+        <v>0.2007437300875677</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H17">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I17">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J17">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N17">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O17">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P17">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q17">
-        <v>4.043206757893334</v>
+        <v>0.5735833094425</v>
       </c>
       <c r="R17">
-        <v>36.38886082104</v>
+        <v>3.441499856655</v>
       </c>
       <c r="S17">
-        <v>0.0005780057111645703</v>
+        <v>3.914987637474169E-05</v>
       </c>
       <c r="T17">
-        <v>0.0005786770601758424</v>
+        <v>2.628908557270971E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H18">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I18">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J18">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.062472</v>
       </c>
       <c r="O18">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P18">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q18">
-        <v>0.7147507939600001</v>
+        <v>0.03450583654</v>
       </c>
       <c r="R18">
-        <v>6.43275714564</v>
+        <v>0.20703501924</v>
       </c>
       <c r="S18">
-        <v>0.0001021788065034665</v>
+        <v>2.355192720061998E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001022974863701081</v>
+        <v>1.581508517811797E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H19">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I19">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J19">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N19">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O19">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P19">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q19">
-        <v>1857.061606862245</v>
+        <v>139.8658911084633</v>
       </c>
       <c r="R19">
-        <v>16713.55446176021</v>
+        <v>839.19534665078</v>
       </c>
       <c r="S19">
-        <v>0.2654804166656346</v>
+        <v>0.009546533617342555</v>
       </c>
       <c r="T19">
-        <v>0.2657887700465752</v>
+        <v>0.006410483567988643</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H20">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I20">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J20">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N20">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O20">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P20">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q20">
-        <v>5.162722143810002</v>
+        <v>1.4385457403975</v>
       </c>
       <c r="R20">
-        <v>30.97633286286</v>
+        <v>5.754182961590001</v>
       </c>
       <c r="S20">
-        <v>0.0007380485498181145</v>
+        <v>9.818780806351058E-05</v>
       </c>
       <c r="T20">
-        <v>0.0004926038582044255</v>
+        <v>4.395531442075905E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H21">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I21">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J21">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N21">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O21">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P21">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q21">
-        <v>2022.823187351214</v>
+        <v>79.76100063085582</v>
       </c>
       <c r="R21">
-        <v>18205.40868616092</v>
+        <v>478.566003785135</v>
       </c>
       <c r="S21">
-        <v>0.2891772360348747</v>
+        <v>0.005444079809886333</v>
       </c>
       <c r="T21">
-        <v>0.2895131130820119</v>
+        <v>0.003655691747703695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H22">
+        <v>138.944788</v>
+      </c>
+      <c r="I22">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J22">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.346153</v>
+      </c>
+      <c r="N22">
+        <v>1.038459</v>
+      </c>
+      <c r="O22">
+        <v>0.002587513800919532</v>
+      </c>
+      <c r="P22">
+        <v>0.002593123140481257</v>
+      </c>
+      <c r="Q22">
+        <v>16.03205173352134</v>
+      </c>
+      <c r="R22">
+        <v>144.288465601692</v>
+      </c>
+      <c r="S22">
+        <v>0.001094266226140501</v>
+      </c>
+      <c r="T22">
+        <v>0.001102197291109206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H23">
+        <v>138.944788</v>
+      </c>
+      <c r="I23">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J23">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.020824</v>
+      </c>
+      <c r="N23">
+        <v>0.062472</v>
+      </c>
+      <c r="O23">
+        <v>0.0001556606107424992</v>
+      </c>
+      <c r="P23">
+        <v>0.000155998059463248</v>
+      </c>
+      <c r="Q23">
+        <v>0.9644620884373334</v>
+      </c>
+      <c r="R23">
+        <v>8.680158795936</v>
+      </c>
+      <c r="S23">
+        <v>6.582927171843025E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.630639165356971E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H24">
+        <v>138.944788</v>
+      </c>
+      <c r="I24">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J24">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>84.40796133333333</v>
+      </c>
+      <c r="N24">
+        <v>253.223884</v>
+      </c>
+      <c r="O24">
+        <v>0.630954418587972</v>
+      </c>
+      <c r="P24">
+        <v>0.6323222325801418</v>
+      </c>
+      <c r="Q24">
+        <v>3909.348764324066</v>
+      </c>
+      <c r="R24">
+        <v>35184.13887891659</v>
+      </c>
+      <c r="S24">
+        <v>0.2668322426916421</v>
+      </c>
+      <c r="T24">
+        <v>0.2687661997141456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H25">
+        <v>138.944788</v>
+      </c>
+      <c r="I25">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J25">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.868151</v>
+      </c>
+      <c r="N25">
+        <v>1.736302</v>
+      </c>
+      <c r="O25">
+        <v>0.006489479200764093</v>
+      </c>
+      <c r="P25">
+        <v>0.004335698275101748</v>
+      </c>
+      <c r="Q25">
+        <v>40.20835221566267</v>
+      </c>
+      <c r="R25">
+        <v>241.250113293976</v>
+      </c>
+      <c r="S25">
+        <v>0.002744417406436177</v>
+      </c>
+      <c r="T25">
+        <v>0.001842872333859591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H26">
+        <v>138.944788</v>
+      </c>
+      <c r="I26">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J26">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>48.13513433333333</v>
+      </c>
+      <c r="N26">
+        <v>144.405403</v>
+      </c>
+      <c r="O26">
+        <v>0.3598129277996019</v>
+      </c>
+      <c r="P26">
+        <v>0.3605929479448119</v>
+      </c>
+      <c r="Q26">
+        <v>2229.37534509884</v>
+      </c>
+      <c r="R26">
+        <v>20064.37810588956</v>
+      </c>
+      <c r="S26">
+        <v>0.1521658104702334</v>
+      </c>
+      <c r="T26">
+        <v>0.1532686837016514</v>
       </c>
     </row>
   </sheetData>
